--- a/medicine/Autisme/Marc_Segar/Marc_Segar.xlsx
+++ b/medicine/Autisme/Marc_Segar/Marc_Segar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marc Alexander Segar (1974-1997) était un auteur et une personnalité autiste britannique.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diagnostiqué avec un syndrome d'Asperger et décédé à 23 ans dans un accident de voiture, il a pourtant laissé des éléments pour faire comprendre l'autisme.
-Diplômé en biochimie[1], il a choisi de travailler en tant qu'animateur pour enfants autistes et de donner des conférences sur l'autisme. Il est également l'auteur d'un livre qui s'apparente à un manuel de vie pour autiste[2],[3].
-Il est surtout connu dans les milieux proches de l'autisme. « Je crois personnellement que si une personne à la frontière de l'autisme doit sortir dans ce monde plutôt odieux en ne comptant que sur elle-même, la dernière chose dont elle ait besoin, c'est d'être protégée »[4][source insuffisante].
+Diplômé en biochimie, il a choisi de travailler en tant qu'animateur pour enfants autistes et de donner des conférences sur l'autisme. Il est également l'auteur d'un livre qui s'apparente à un manuel de vie pour autiste,.
+Il est surtout connu dans les milieux proches de l'autisme. « Je crois personnellement que si une personne à la frontière de l'autisme doit sortir dans ce monde plutôt odieux en ne comptant que sur elle-même, la dernière chose dont elle ait besoin, c'est d'être protégée »[source insuffisante].
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Faire face (titre français de Coping. A survival guide for people with Asperger Syndrome, 1997).</t>
         </is>
